--- a/App/BioDiversityPlant.xlsx
+++ b/App/BioDiversityPlant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/soalex_microsoft_com/Documents/Code/bcsamples-onboarding/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4663598-D45D-4636-AF64-34DAE3006424}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{60B4FB5B-16F2-4B32-B08B-7289E7DA7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CB579EE-A3C3-4513-9AFB-C84EEDEB5BFC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1513,11 +1513,11 @@
       <c:catAx>
         <c:axId val="1134079567"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1567,7 +1567,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="l"/>
+        <c:axPos val="r"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2641,7 +2641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
@@ -4034,7 +4034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9CCFDF-8E89-4895-84D2-669601753AB0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
